--- a/uploadFile/excels/广西建筑业项目和房地产企业复工情况表.xlsx
+++ b/uploadFile/excels/广西建筑业项目和房地产企业复工情况表.xlsx
@@ -98,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,7 +130,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -152,6 +174,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -160,28 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,6 +204,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -198,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,66 +272,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,31 +282,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +360,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,133 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +542,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -559,32 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,18 +613,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,152 +641,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +812,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1136,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1188,18 +1185,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="45.75" spans="1:9">
+    <row r="3" ht="18.35" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="18.35" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="18.35" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="18.35" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="18.35" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="18.35" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" ht="18.35" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="18.35" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="18.35" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="18.35" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="18.35" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" ht="18.35" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" ht="18.35" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" ht="18.35" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>

--- a/uploadFile/excels/广西建筑业项目和房地产企业复工情况表.xlsx
+++ b/uploadFile/excels/广西建筑业项目和房地产企业复工情况表.xlsx
@@ -49,7 +49,7 @@
     <t>全区</t>
   </si>
   <si>
-    <t>广西</t>
+    <t>南宁</t>
   </si>
   <si>
     <t>柳州市</t>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,6 +136,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -144,13 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -159,6 +166,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -175,62 +252,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,35 +272,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +566,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,17 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,165 +636,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
